--- a/tool/excel/hfe.xlsx
+++ b/tool/excel/hfe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\hubproject\cs\tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8907CC6-6373-4B57-B8D6-E3134208B9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC72EA0-36E3-4E89-8C05-B3D6FEBFCE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Meal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,138 @@
   </si>
   <si>
     <t>Bob owes you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRMFreak Income Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All number are in thousands of dollars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subscriptions and support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Licensing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost of revenues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total cost of revenues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expenses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research and development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketing and sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General and administrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total expenses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRMFreak Balance Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash and cash equlvalents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketable securities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounts receivable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deferred commissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deferred income taxes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepaids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goodwill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liabilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deferred revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-term liabilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stockholder's equlties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controlling interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noncontrolling interest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +245,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +284,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,31 +337,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="24" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,7 +660,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,341 +673,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="16">
         <v>66</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="16">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="16">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="16">
         <f>B3-C3-D3</f>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="16">
         <v>116</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="16">
         <v>34</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="16">
         <v>53</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <f>B4-C4-D4</f>
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="16">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="16">
         <f>B5-C5-D5</f>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="16">
         <v>123</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="16">
         <v>39</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="16">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="16">
         <f>B6-C6-D6</f>
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="16">
         <v>61</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="16">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="16">
         <v>18</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="16">
         <f>B10-C10-D10</f>
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="16">
         <v>50</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="16">
         <v>17</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="16">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="16">
         <f>B11-C11-D11</f>
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="16">
         <v>163</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="16">
         <v>75</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="16">
         <v>51</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16">
         <f>B15-C15-D15</f>
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="16">
         <v>95</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="16">
         <v>47</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="16">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="16">
         <f>B16-C16-D16</f>
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="16">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="16">
         <v>19</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="16">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="16">
         <f>B17-C17-D17</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19">
         <f>SUM(C3:C6)</f>
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20">
         <f>SUM(E10:E11)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21">
         <f>C19-C20</f>
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23">
         <f>SUM(D3:D6)</f>
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24">
         <f>SUM(E15:E17)</f>
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25">
         <f>C23-C24</f>
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27">
         <f>SUM(D10:D11)</f>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28">
         <f>SUM(C15:C17)</f>
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29">
         <f>C27-C28</f>
         <v>-107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="15"/>
       <c r="C31">
         <f>400-SUM(E2:E6,E10:E11,E15:E17)</f>
         <v>197</v>
@@ -834,12 +1022,12 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -849,21 +1037,335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7C22E0-1300-4263-9F29-04C45B1AAE1B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="9" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <f>SUM(B5:B6)</f>
+        <v>341</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9">
+        <f>SUM(B10:B11)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9">
+        <f>B7-B12</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9">
+        <v>151</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9">
+        <f>SUM(B17:B19)</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9">
+        <f>B14-B20</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="9">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="9">
+        <f>SUM(B29:B37)</f>
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="9">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9">
+        <f>SUM(B41:B43)</f>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="9">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9">
+        <f>SUM(B47:B48)</f>
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -883,25 +1385,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/tool/excel/hfe.xlsx
+++ b/tool/excel/hfe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\hubproject\cs\tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC72EA0-36E3-4E89-8C05-B3D6FEBFCE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371EB8DD-3D66-461F-AF79-71ECF5216021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LowMen" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="cost">Sheet3!$D$4</definedName>
+    <definedName name="discount">Sheet3!$B$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
   <si>
     <t>Meal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +243,138 @@
   </si>
   <si>
     <t>Noncontrolling interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Profitability Forecast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Looking at next quarter's pricing for each unit sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-end computers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Item </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motherboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross profit margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-End Memory Wholesale Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicroMiniMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-2341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts R Us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2320B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU-8755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2320A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-8532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jorge's Electronic Parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krazy Komputer Kastle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E23208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-8533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU-8754a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-8533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-End Motherboard Wholesale Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-End Hard Disk Wholesale Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discounted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,9 +382,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
@@ -343,21 +481,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,14 +509,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="37" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="37" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="37" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -392,6 +615,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67291E3A-785A-4C88-9804-68FFCBD58F38}" name="lowmen" displayName="lowmen" ref="A3:D19" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A3:D19" xr:uid="{67291E3A-785A-4C88-9804-68FFCBD58F38}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{01E1CFBC-BD0F-4E7D-959B-E8179A2030E3}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{77DC573E-CF50-415C-9C80-8D3A05A33729}" name="Vendor"/>
+    <tableColumn id="3" xr3:uid="{FA379A0E-8CE6-41B2-B855-3530B65726ED}" name="Model"/>
+    <tableColumn id="4" xr3:uid="{8792ADFD-39DF-4603-ACA2-17E17F829F7E}" name="Price" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EAE33B-4705-47B5-BBF1-E2A1E4906133}" name="lowmoth" displayName="lowmoth" ref="F3:I19" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="F3:I19" xr:uid="{E8EAE33B-4705-47B5-BBF1-E2A1E4906133}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{163764C0-972F-40DC-B5D9-6B135E3D2FAD}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{67BC56FB-3373-4BC4-9E2B-077F06AD21B6}" name="Vendor"/>
+    <tableColumn id="3" xr3:uid="{35004183-F1ED-4396-9C52-730E24885B61}" name="Model"/>
+    <tableColumn id="4" xr3:uid="{C860E714-5CCE-4876-AE3B-8D4769F88716}" name="Price" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8589257C-7888-4C00-AD4C-FD2679426DC7}" name="lowhard" displayName="lowhard" ref="K3:N19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="K3:N19" xr:uid="{8589257C-7888-4C00-AD4C-FD2679426DC7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F47EF6AC-E550-4289-AB59-2DD90180F0AF}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{B7882376-F6EB-455E-B39B-445DDEC3DB9B}" name="Vendor"/>
+    <tableColumn id="3" xr3:uid="{2A3E8C8F-C02E-4525-A2DA-0CDA80B22170}" name="Model"/>
+    <tableColumn id="4" xr3:uid="{F383F3B7-14C4-42B8-8B14-E03273957915}" name="Price" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,177 +934,176 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3">
         <v>66</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3">
         <f>B3-C3-D3</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4">
         <v>116</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4">
         <v>34</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4">
         <v>53</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4">
         <f>B4-C4-D4</f>
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5">
         <v>27</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5">
         <f>B5-C5-D5</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>123</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6">
         <v>39</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>50</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6">
         <f>B6-C6-D6</f>
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10">
         <v>61</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>19</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>18</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <f>B10-C10-D10</f>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11">
         <v>50</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11">
         <v>17</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11">
         <v>16</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11">
         <f>B11-C11-D11</f>
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,155 +1120,155 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15">
         <v>163</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15">
         <v>75</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15">
         <v>51</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15">
         <f>B15-C15-D15</f>
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16">
         <v>95</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16">
         <v>47</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16">
         <f>B16-C16-D16</f>
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17">
         <v>19</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17">
         <f>B17-C17-D17</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="15"/>
       <c r="C19">
         <f>SUM(C3:C6)</f>
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="15"/>
       <c r="C20">
         <f>SUM(E10:E11)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="15"/>
       <c r="C21">
         <f>C19-C20</f>
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="15"/>
       <c r="C23">
         <f>SUM(D3:D6)</f>
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="15"/>
       <c r="C24">
         <f>SUM(E15:E17)</f>
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="15"/>
       <c r="C25">
         <f>C23-C24</f>
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="15"/>
       <c r="C27">
         <f>SUM(D10:D11)</f>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="15"/>
       <c r="C28">
         <f>SUM(C15:C17)</f>
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="15"/>
       <c r="C29">
         <f>C27-C28</f>
         <v>-107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="C31">
         <f>400-SUM(E2:E6,E10:E11,E15:E17)</f>
         <v>197</v>
@@ -1015,6 +1276,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -1022,12 +1289,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1039,33 +1300,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7C22E0-1300-4263-9F29-04C45B1AAE1B}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1073,34 +1334,34 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>24</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <f>SUM(B5:B6)</f>
         <v>341</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H8" s="7"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1108,15 +1369,15 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>25</v>
       </c>
     </row>
@@ -1124,22 +1385,22 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <f>SUM(B10:B11)</f>
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <f>B7-B12</f>
         <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1147,7 +1408,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>33</v>
       </c>
     </row>
@@ -1155,16 +1416,16 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>151</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>48</v>
       </c>
     </row>
@@ -1172,38 +1433,38 @@
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <f>SUM(B17:B19)</f>
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <f>B14-B20</f>
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="17"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1211,7 +1472,7 @@
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>532</v>
       </c>
     </row>
@@ -1219,7 +1480,7 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>439</v>
       </c>
     </row>
@@ -1227,7 +1488,7 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>293</v>
       </c>
     </row>
@@ -1235,7 +1496,7 @@
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="7">
         <v>63</v>
       </c>
     </row>
@@ -1243,7 +1504,7 @@
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>64</v>
       </c>
     </row>
@@ -1251,7 +1512,7 @@
       <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>36</v>
       </c>
     </row>
@@ -1259,7 +1520,7 @@
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>85</v>
       </c>
     </row>
@@ -1267,15 +1528,15 @@
       <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>66</v>
       </c>
     </row>
@@ -1283,13 +1544,13 @@
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <f>SUM(B29:B37)</f>
         <v>1627</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1297,7 +1558,7 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>202</v>
       </c>
     </row>
@@ -1305,15 +1566,15 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <v>22</v>
       </c>
     </row>
@@ -1321,13 +1582,13 @@
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="7">
         <f>SUM(B41:B43)</f>
         <v>877</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1335,15 +1596,15 @@
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1351,7 +1612,7 @@
       <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="7">
         <f>SUM(B47:B48)</f>
         <v>750</v>
       </c>
@@ -1371,47 +1632,882 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFB3067-1262-4EB2-901B-0DFB8D4DC48D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="19">
+        <f>MIN(LowMen!D4:D19)</f>
+        <v>63</v>
+      </c>
+      <c r="C8" s="19">
+        <f>B8-B8*discount</f>
+        <v>59.85</v>
+      </c>
+      <c r="D8">
+        <f>MIN(lowmen[Price])</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="19">
+        <f>MIN(LowMen!I4:I19)</f>
+        <v>224</v>
+      </c>
+      <c r="C9" s="19">
+        <f>B9-B9*discount</f>
+        <v>212.8</v>
+      </c>
+      <c r="D9">
+        <f>MIN(lowmoth[Price])</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="19">
+        <f>MIN(LowMen!N4:N19)</f>
+        <v>60</v>
+      </c>
+      <c r="C10" s="19">
+        <f>B10-B10*discount</f>
+        <v>57</v>
+      </c>
+      <c r="D10" s="18">
+        <f>MIN(lowhard[Price])</f>
+        <v>60</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="19">
+        <f>SUM(B8:B10)</f>
+        <v>347</v>
+      </c>
+      <c r="C11" s="19">
+        <f>SUM(C8:C10)</f>
+        <v>329.65000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="19">
+        <v>390</v>
+      </c>
+      <c r="C13" s="19">
+        <v>390</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="20">
+        <f>(B13-B11)/B13</f>
+        <v>0.11025641025641025</v>
+      </c>
+      <c r="C15" s="20">
+        <f>(C13-C11)/C13</f>
+        <v>0.15474358974358965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A15:E15"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F11AF1B-47EF-4B3C-B854-4ED322BC23FF}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="12" max="12" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7">
+        <v>66</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="7">
+        <v>266</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="7">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="7">
+        <v>265</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="7">
+        <v>264</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="7">
+        <v>264</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="7">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="7">
+        <v>264</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="7">
+        <v>263</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="7">
+        <v>263</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="7">
+        <v>266</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="7">
+        <v>264</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="7">
+        <v>265</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="7">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="7">
+        <v>265</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="7">
+        <v>263</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="7">
+        <v>266</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="7">
+        <v>266</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="7">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="7">
+        <v>265</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="7">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="7">
+        <v>224</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="7">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tool/excel/hfe.xlsx
+++ b/tool/excel/hfe.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\hubproject\cs\tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371EB8DD-3D66-461F-AF79-71ECF5216021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84286FE9-D95D-43B0-B4E7-CF12399EB362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="LowMen" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="LowMen" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$F$12</definedName>
     <definedName name="cost">Sheet3!$D$4</definedName>
     <definedName name="discount">Sheet3!$B$4</definedName>
   </definedNames>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
   <si>
     <t>Meal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +379,148 @@
   </si>
   <si>
     <t>Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/6/2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/6/2010</t>
+  </si>
+  <si>
+    <t>10/6/2011</t>
+  </si>
+  <si>
+    <t>10/6/2012</t>
+  </si>
+  <si>
+    <t>10/6/2013</t>
+  </si>
+  <si>
+    <t>10/6/2014</t>
+  </si>
+  <si>
+    <t>10/6/2015</t>
+  </si>
+  <si>
+    <t>10/6/2016</t>
+  </si>
+  <si>
+    <t>10/6/2017</t>
+  </si>
+  <si>
+    <t>10/6/2018</t>
+  </si>
+  <si>
+    <t>Cook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galloway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hickman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patrick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vaughn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hobbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaslyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elaina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lennon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gunnar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>April</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/6/2019</t>
+  </si>
+  <si>
+    <t>Whitaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,19 +655,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -531,6 +664,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -538,6 +684,9 @@
     <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="37" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -601,9 +750,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="37" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -618,39 +764,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67291E3A-785A-4C88-9804-68FFCBD58F38}" name="lowmen" displayName="lowmen" ref="A3:D19" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67291E3A-785A-4C88-9804-68FFCBD58F38}" name="lowmen" displayName="lowmen" ref="A3:D19" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A3:D19" xr:uid="{67291E3A-785A-4C88-9804-68FFCBD58F38}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{01E1CFBC-BD0F-4E7D-959B-E8179A2030E3}" name="ID"/>
     <tableColumn id="2" xr3:uid="{77DC573E-CF50-415C-9C80-8D3A05A33729}" name="Vendor"/>
     <tableColumn id="3" xr3:uid="{FA379A0E-8CE6-41B2-B855-3530B65726ED}" name="Model"/>
-    <tableColumn id="4" xr3:uid="{8792ADFD-39DF-4603-ACA2-17E17F829F7E}" name="Price" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8792ADFD-39DF-4603-ACA2-17E17F829F7E}" name="Price" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EAE33B-4705-47B5-BBF1-E2A1E4906133}" name="lowmoth" displayName="lowmoth" ref="F3:I19" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EAE33B-4705-47B5-BBF1-E2A1E4906133}" name="lowmoth" displayName="lowmoth" ref="F3:I19" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="F3:I19" xr:uid="{E8EAE33B-4705-47B5-BBF1-E2A1E4906133}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{163764C0-972F-40DC-B5D9-6B135E3D2FAD}" name="ID"/>
     <tableColumn id="2" xr3:uid="{67BC56FB-3373-4BC4-9E2B-077F06AD21B6}" name="Vendor"/>
     <tableColumn id="3" xr3:uid="{35004183-F1ED-4396-9C52-730E24885B61}" name="Model"/>
-    <tableColumn id="4" xr3:uid="{C860E714-5CCE-4876-AE3B-8D4769F88716}" name="Price" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C860E714-5CCE-4876-AE3B-8D4769F88716}" name="Price" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8589257C-7888-4C00-AD4C-FD2679426DC7}" name="lowhard" displayName="lowhard" ref="K3:N19" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8589257C-7888-4C00-AD4C-FD2679426DC7}" name="lowhard" displayName="lowhard" ref="K3:N19" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="K3:N19" xr:uid="{8589257C-7888-4C00-AD4C-FD2679426DC7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F47EF6AC-E550-4289-AB59-2DD90180F0AF}" name="ID"/>
     <tableColumn id="2" xr3:uid="{B7882376-F6EB-455E-B39B-445DDEC3DB9B}" name="Vendor"/>
     <tableColumn id="3" xr3:uid="{2A3E8C8F-C02E-4525-A2DA-0CDA80B22170}" name="Model"/>
-    <tableColumn id="4" xr3:uid="{F383F3B7-14C4-42B8-8B14-E03273957915}" name="Price" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F383F3B7-14C4-42B8-8B14-E03273957915}" name="Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -921,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -935,13 +1081,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1033,13 +1179,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1095,13 +1241,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1175,100 +1321,100 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="19"/>
       <c r="C19">
         <f>SUM(C3:C6)</f>
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="19"/>
       <c r="C20">
         <f>SUM(E10:E11)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="19"/>
       <c r="C21">
         <f>C19-C20</f>
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="19"/>
       <c r="C23">
         <f>SUM(D3:D6)</f>
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="19"/>
       <c r="C24">
         <f>SUM(E15:E17)</f>
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="19"/>
       <c r="C25">
         <f>C23-C24</f>
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="19"/>
       <c r="C27">
         <f>SUM(D10:D11)</f>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="19"/>
       <c r="C28">
         <f>SUM(C15:C17)</f>
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="19"/>
       <c r="C29">
         <f>C27-C28</f>
         <v>-107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="21"/>
       <c r="C31">
         <f>400-SUM(E2:E6,E10:E11,E15:E17)</f>
         <v>197</v>
@@ -1276,12 +1422,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -1289,6 +1429,12 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1300,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7C22E0-1300-4263-9F29-04C45B1AAE1B}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1314,16 +1460,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1448,16 +1594,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="22"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1632,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFB3067-1262-4EB2-901B-0DFB8D4DC48D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1647,44 +1793,43 @@
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="17">
         <v>0.05</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1695,15 +1840,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="14">
         <f>MIN(LowMen!D4:D19)</f>
         <v>63</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="14">
         <f>B8-B8*discount</f>
         <v>59.85</v>
       </c>
@@ -1712,15 +1857,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="14">
         <f>MIN(LowMen!I4:I19)</f>
         <v>224</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="14">
         <f>B9-B9*discount</f>
         <v>212.8</v>
       </c>
@@ -1729,72 +1874,63 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="14">
         <f>MIN(LowMen!N4:N19)</f>
         <v>60</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="14">
         <f>B10-B10*discount</f>
         <v>57</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10">
         <f>MIN(lowhard[Price])</f>
         <v>60</v>
       </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="14">
         <f>SUM(B8:B10)</f>
         <v>347</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="14">
         <f>SUM(C8:C10)</f>
         <v>329.65000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="14">
         <v>390</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="14">
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="15">
         <f>(B13-B11)/B13</f>
         <v>0.11025641025641025</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <f>(C13-C11)/C13</f>
         <v>0.15474358974358965</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1807,11 +1943,306 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E685BDBD-7F9D-47CB-82B6-C2A488DC3BB8}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>201517</v>
+      </c>
+      <c r="F2" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3">
+        <v>201517</v>
+      </c>
+      <c r="F3" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4">
+        <v>201517</v>
+      </c>
+      <c r="F4" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>201617</v>
+      </c>
+      <c r="F5" s="14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <v>201617</v>
+      </c>
+      <c r="F6" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7">
+        <v>201817</v>
+      </c>
+      <c r="F7" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3935</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8">
+        <v>201817</v>
+      </c>
+      <c r="F8" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2678</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9">
+        <v>201817</v>
+      </c>
+      <c r="F9" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>201817</v>
+      </c>
+      <c r="F10" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1931</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11">
+        <v>201817</v>
+      </c>
+      <c r="F11" s="14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>867</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12">
+        <v>201817</v>
+      </c>
+      <c r="F12" s="14">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F12" xr:uid="{E685BDBD-7F9D-47CB-82B6-C2A488DC3BB8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F12">
+    <sortCondition ref="E2:E12"/>
+    <sortCondition ref="F2:F12"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBD7B34-33C7-4D0E-A9DD-208F08A2CFD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE949F91-1EFC-493F-AFC6-F89E433C4CBD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F11AF1B-47EF-4B3C-B854-4ED322BC23FF}">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1831,24 +2262,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">

--- a/tool/excel/hfe.xlsx
+++ b/tool/excel/hfe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\hubproject\cs\tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84286FE9-D95D-43B0-B4E7-CF12399EB362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8F14A7-B379-4523-8A56-16B9E8C4C7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <definedName name="discount">Sheet3!$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="130">
   <si>
     <t>Meal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +522,38 @@
   </si>
   <si>
     <t>Alden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before tratment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,12 +561,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -636,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -664,19 +698,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1081,13 +1123,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1179,13 +1221,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1241,13 +1283,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1321,100 +1363,100 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19">
         <f>SUM(C3:C6)</f>
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20">
         <f>SUM(E10:E11)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21">
         <f>C19-C20</f>
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23">
         <f>SUM(D3:D6)</f>
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24">
         <f>SUM(E15:E17)</f>
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25">
         <f>C23-C24</f>
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27">
         <f>SUM(D10:D11)</f>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28">
         <f>SUM(C15:C17)</f>
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29">
         <f>C27-C28</f>
         <v>-107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="19"/>
       <c r="C31">
         <f>400-SUM(E2:E6,E10:E11,E15:E17)</f>
         <v>197</v>
@@ -1422,6 +1464,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -1429,12 +1477,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1460,10 +1502,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
@@ -1594,10 +1636,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
@@ -1794,20 +1836,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -1946,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E685BDBD-7F9D-47CB-82B6-C2A488DC3BB8}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1975,7 +2017,7 @@
       <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2213,12 +2255,425 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBD7B34-33C7-4D0E-A9DD-208F08A2CFD1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4079</v>
+      </c>
+      <c r="B3">
+        <v>4782</v>
+      </c>
+      <c r="C3">
+        <v>4700</v>
+      </c>
+      <c r="D3">
+        <v>6489</v>
+      </c>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4626</v>
+      </c>
+      <c r="B4">
+        <v>4609</v>
+      </c>
+      <c r="C4">
+        <v>4444</v>
+      </c>
+      <c r="D4">
+        <v>5671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4592</v>
+      </c>
+      <c r="B5">
+        <v>5366</v>
+      </c>
+      <c r="C5">
+        <v>5076</v>
+      </c>
+      <c r="D5">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4116</v>
+      </c>
+      <c r="B6">
+        <v>4381</v>
+      </c>
+      <c r="C6">
+        <v>4979</v>
+      </c>
+      <c r="D6">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4880</v>
+      </c>
+      <c r="B7">
+        <v>4849</v>
+      </c>
+      <c r="C7">
+        <v>4764</v>
+      </c>
+      <c r="D7">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5373</v>
+      </c>
+      <c r="B8">
+        <v>4104</v>
+      </c>
+      <c r="C8">
+        <v>4518</v>
+      </c>
+      <c r="D8">
+        <v>7719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4416</v>
+      </c>
+      <c r="B9">
+        <v>3989</v>
+      </c>
+      <c r="C9">
+        <v>4968</v>
+      </c>
+      <c r="D9">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5041</v>
+      </c>
+      <c r="B10">
+        <v>5269</v>
+      </c>
+      <c r="C10">
+        <v>4510</v>
+      </c>
+      <c r="D10">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5125</v>
+      </c>
+      <c r="B11">
+        <v>5181</v>
+      </c>
+      <c r="C11">
+        <v>4633</v>
+      </c>
+      <c r="D11">
+        <v>7252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4831</v>
+      </c>
+      <c r="B12">
+        <v>4891</v>
+      </c>
+      <c r="C12">
+        <v>4244</v>
+      </c>
+      <c r="D12">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3927</v>
+      </c>
+      <c r="B13">
+        <v>4315</v>
+      </c>
+      <c r="C13">
+        <v>5628</v>
+      </c>
+      <c r="D13">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4774</v>
+      </c>
+      <c r="B14">
+        <v>4288</v>
+      </c>
+      <c r="C14">
+        <v>4433</v>
+      </c>
+      <c r="D14">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4687</v>
+      </c>
+      <c r="B15">
+        <v>3982</v>
+      </c>
+      <c r="C15">
+        <v>4452</v>
+      </c>
+      <c r="D15">
+        <v>7651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4635</v>
+      </c>
+      <c r="B16">
+        <v>5362</v>
+      </c>
+      <c r="C16">
+        <v>4042</v>
+      </c>
+      <c r="D16">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5018</v>
+      </c>
+      <c r="B17">
+        <v>3912</v>
+      </c>
+      <c r="C17">
+        <v>5066</v>
+      </c>
+      <c r="D17">
+        <v>6302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5233</v>
+      </c>
+      <c r="B18">
+        <v>4681</v>
+      </c>
+      <c r="C18">
+        <v>4030</v>
+      </c>
+      <c r="D18">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5006</v>
+      </c>
+      <c r="B19">
+        <v>5264</v>
+      </c>
+      <c r="C19">
+        <v>4374</v>
+      </c>
+      <c r="D19">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4062</v>
+      </c>
+      <c r="B20">
+        <v>4565</v>
+      </c>
+      <c r="C20">
+        <v>4020</v>
+      </c>
+      <c r="D20">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="26">
+        <f>AVERAGE(A3:A20)</f>
+        <v>4690.0555555555557</v>
+      </c>
+      <c r="C25" s="27">
+        <f>STDEV(A3:A20)</f>
+        <v>428.08746662915433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="26">
+        <f>AVERAGE(B3:B20)</f>
+        <v>4655</v>
+      </c>
+      <c r="C26" s="27">
+        <f>STDEV(B3:B20)</f>
+        <v>498.6909923814074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="26">
+        <f>AVERAGE(C3:C20)</f>
+        <v>4604.5</v>
+      </c>
+      <c r="C30" s="27">
+        <f>STDEV(C3:C20)</f>
+        <v>424.0304165005702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="27">
+        <f>AVERAGE(D3:D20)</f>
+        <v>6137.1111111111113</v>
+      </c>
+      <c r="C31" s="27">
+        <f>STDEV(D3:D20)</f>
+        <v>840.7062079612449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="26">
+        <f>B30-B25</f>
+        <v>-85.555555555555657</v>
+      </c>
+      <c r="C35" s="26">
+        <f>C30-C25</f>
+        <v>-4.0570501285841374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="27">
+        <f>B31-B26</f>
+        <v>1482.1111111111113</v>
+      </c>
+      <c r="C36" s="27">
+        <f>C31-C26</f>
+        <v>342.0152155798375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2262,24 +2717,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">

--- a/tool/excel/hfe.xlsx
+++ b/tool/excel/hfe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\hubproject\cs\tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8F14A7-B379-4523-8A56-16B9E8C4C7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FB089-9F3C-4465-9C47-1F7E7488BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="discount">Sheet3!$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
   <si>
     <t>Meal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +553,18 @@
   </si>
   <si>
     <t>Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upcoming 10K races in Dataville</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days From Noe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,15 +572,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +646,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -670,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -698,18 +720,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,8 +727,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1123,13 +1152,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1221,13 +1250,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1283,13 +1312,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1363,100 +1392,100 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19">
         <f>SUM(C3:C6)</f>
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20">
         <f>SUM(E10:E11)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21">
         <f>C19-C20</f>
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="23"/>
       <c r="C23">
         <f>SUM(D3:D6)</f>
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24">
         <f>SUM(E15:E17)</f>
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25">
         <f>C23-C24</f>
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27">
         <f>SUM(D10:D11)</f>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="23"/>
       <c r="C28">
         <f>SUM(C15:C17)</f>
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="23"/>
       <c r="C29">
         <f>C27-C28</f>
         <v>-107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="25"/>
       <c r="C31">
         <f>400-SUM(E2:E6,E10:E11,E15:E17)</f>
         <v>197</v>
@@ -1464,12 +1493,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -1477,6 +1500,12 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,16 +1531,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1636,16 +1665,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="26"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1836,20 +1865,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -2257,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBD7B34-33C7-4D0E-A9DD-208F08A2CFD1}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2270,14 +2299,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2306,7 +2335,7 @@
       <c r="D3">
         <v>6489</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2547,16 +2576,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2564,11 +2593,11 @@
       <c r="A25" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <f>AVERAGE(A3:A20)</f>
         <v>4690.0555555555557</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="22">
         <f>STDEV(A3:A20)</f>
         <v>428.08746662915433</v>
       </c>
@@ -2577,26 +2606,26 @@
       <c r="A26" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <f>AVERAGE(B3:B20)</f>
         <v>4655</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="22">
         <f>STDEV(B3:B20)</f>
         <v>498.6909923814074</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2604,11 +2633,11 @@
       <c r="A30" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="22">
         <f>AVERAGE(C3:C20)</f>
         <v>4604.5</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="22">
         <f>STDEV(C3:C20)</f>
         <v>424.0304165005702</v>
       </c>
@@ -2617,26 +2646,26 @@
       <c r="A31" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="22">
         <f>AVERAGE(D3:D20)</f>
         <v>6137.1111111111113</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="22">
         <f>STDEV(D3:D20)</f>
         <v>840.7062079612449</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="25"/>
     </row>
     <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2644,11 +2673,11 @@
       <c r="A35" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="22">
         <f>B30-B25</f>
         <v>-85.555555555555657</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="22">
         <f>C30-C25</f>
         <v>-4.0570501285841374</v>
       </c>
@@ -2657,11 +2686,11 @@
       <c r="A36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="22">
         <f>B31-B26</f>
         <v>1482.1111111111113</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="22">
         <f>C31-C26</f>
         <v>342.0152155798375</v>
       </c>
@@ -2681,12 +2710,142 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE949F91-1EFC-493F-AFC6-F89E433C4CBD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>40341</v>
+      </c>
+      <c r="B4" s="30">
+        <f>VALUE(A4)</f>
+        <v>40341</v>
+      </c>
+      <c r="C4" s="31">
+        <f>B4-DATEVALUE("10/6/5")</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>40355</v>
+      </c>
+      <c r="B5" s="30">
+        <f t="shared" ref="B5:B10" si="0">VALUE(A5)</f>
+        <v>40355</v>
+      </c>
+      <c r="C5" s="31">
+        <f t="shared" ref="C5:C10" si="1">B5-DATEVALUE("10/6/5")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>40362</v>
+      </c>
+      <c r="B6" s="30">
+        <f t="shared" si="0"/>
+        <v>40362</v>
+      </c>
+      <c r="C6" s="31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>40390</v>
+      </c>
+      <c r="B7" s="30">
+        <f t="shared" si="0"/>
+        <v>40390</v>
+      </c>
+      <c r="C7" s="31">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>40474</v>
+      </c>
+      <c r="B8" s="30">
+        <f t="shared" si="0"/>
+        <v>40474</v>
+      </c>
+      <c r="C8" s="31">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>40488</v>
+      </c>
+      <c r="B9" s="30">
+        <f t="shared" si="0"/>
+        <v>40488</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>40502</v>
+      </c>
+      <c r="B10" s="30">
+        <f t="shared" si="0"/>
+        <v>40502</v>
+      </c>
+      <c r="C10" s="31">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2717,24 +2876,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">

--- a/tool/excel/hfe.xlsx
+++ b/tool/excel/hfe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\hubproject\cs\tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FB089-9F3C-4465-9C47-1F7E7488BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B4FC8A-EEFF-4D13-ACBD-45EBD8DDA5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
   <si>
     <t>Meal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,38 @@
   </si>
   <si>
     <t>Days From Noe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitburg Marathon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataville Marathon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Months away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target pace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target pace + 10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,14 +604,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -692,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,13 +761,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,11 +780,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1152,13 +1187,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1250,13 +1285,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1312,13 +1347,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1392,100 +1427,100 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="28"/>
       <c r="C19">
         <f>SUM(C3:C6)</f>
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="28"/>
       <c r="C20">
         <f>SUM(E10:E11)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="28"/>
       <c r="C21">
         <f>C19-C20</f>
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="28"/>
       <c r="C23">
         <f>SUM(D3:D6)</f>
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="28"/>
       <c r="C24">
         <f>SUM(E15:E17)</f>
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="28"/>
       <c r="C25">
         <f>C23-C24</f>
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="28"/>
       <c r="C27">
         <f>SUM(D10:D11)</f>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="28"/>
       <c r="C28">
         <f>SUM(C15:C17)</f>
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="28"/>
       <c r="C29">
         <f>C27-C28</f>
         <v>-107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="27"/>
       <c r="C31">
         <f>400-SUM(E2:E6,E10:E11,E15:E17)</f>
         <v>197</v>
@@ -1493,6 +1528,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -1500,12 +1541,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1531,16 +1566,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1665,16 +1700,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="30"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1865,20 +1900,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -2299,14 +2334,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2576,10 +2611,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
@@ -2616,10 +2651,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
@@ -2656,10 +2691,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="27"/>
     </row>
     <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
@@ -2710,27 +2745,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE949F91-1EFC-493F-AFC6-F89E433C4CBD}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2744,100 +2779,171 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>40341</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="25">
         <f>VALUE(A4)</f>
         <v>40341</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4">
         <f>B4-DATEVALUE("10/6/5")</f>
         <v>7</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>40355</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="25">
         <f t="shared" ref="B5:B10" si="0">VALUE(A5)</f>
         <v>40355</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5">
         <f t="shared" ref="C5:C10" si="1">B5-DATEVALUE("10/6/5")</f>
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="24">
         <v>40362</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="25">
         <f t="shared" si="0"/>
         <v>40362</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>40390</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="25">
         <f t="shared" si="0"/>
         <v>40390</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="24">
         <v>40474</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="25">
         <f t="shared" si="0"/>
         <v>40474</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="24">
         <v>40488</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="25">
         <f t="shared" si="0"/>
         <v>40488</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="24">
         <v>40502</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="25">
         <f t="shared" si="0"/>
         <v>40502</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="25">
+        <v>40334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="25">
+        <v>40446</v>
+      </c>
+      <c r="C16" s="32">
+        <f>DATEDIF($B$13,B16,"m")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="25">
+        <v>40488</v>
+      </c>
+      <c r="C17" s="32">
+        <f>DATEDIF($B$13,B17,"m")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="33">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="33">
+        <f>B20/26.2</f>
+        <v>5.5661577608142497E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="33">
+        <f>B21*(1+0.1)</f>
+        <v>6.1227735368956752E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>40336.208330000001</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A10">
@@ -2876,24 +2982,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">

--- a/tool/excel/hfe.xlsx
+++ b/tool/excel/hfe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\hubproject\cs\tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B4FC8A-EEFF-4D13-ACBD-45EBD8DDA5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01A8B9-D452-4CD6-B53F-DA6CBC55DB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
-    <sheet name="LowMen" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="LowMen" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$F$12</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="145">
   <si>
     <t>Meal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +598,21 @@
   </si>
   <si>
     <t>Target pace + 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TicketID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/5/2010</t>
+  </si>
+  <si>
+    <t>6/5/2010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +628,7 @@
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -725,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -765,13 +781,15 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,9 +798,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1187,13 +1202,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1285,13 +1300,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1347,13 +1362,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1427,100 +1442,100 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <f>SUM(C3:C6)</f>
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <f>SUM(E10:E11)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <f>C19-C20</f>
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <f>SUM(D3:D6)</f>
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <f>SUM(E15:E17)</f>
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <f>C23-C24</f>
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <f>SUM(D10:D11)</f>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="C28">
         <f>SUM(C15:C17)</f>
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="29"/>
       <c r="C29">
         <f>C27-C28</f>
         <v>-107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31">
         <f>400-SUM(E2:E6,E10:E11,E15:E17)</f>
         <v>197</v>
@@ -1528,12 +1543,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -1541,6 +1550,12 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,16 +1581,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1700,16 +1715,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="32"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1900,20 +1915,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -2321,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBD7B34-33C7-4D0E-A9DD-208F08A2CFD1}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -2334,14 +2349,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2611,10 +2626,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
@@ -2651,10 +2666,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
@@ -2691,10 +2706,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="31"/>
     </row>
     <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
@@ -2747,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE949F91-1EFC-493F-AFC6-F89E433C4CBD}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2761,11 +2776,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2894,7 +2909,7 @@
       <c r="B16" s="25">
         <v>40446</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16">
         <f>DATEDIF($B$13,B16,"m")</f>
         <v>3</v>
       </c>
@@ -2906,7 +2921,7 @@
       <c r="B17" s="25">
         <v>40488</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17">
         <f>DATEDIF($B$13,B17,"m")</f>
         <v>5</v>
       </c>
@@ -2915,7 +2930,7 @@
       <c r="A20" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="27">
         <v>0.14583333333333334</v>
       </c>
     </row>
@@ -2923,7 +2938,7 @@
       <c r="A21" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="27">
         <f>B20/26.2</f>
         <v>5.5661577608142497E-3</v>
       </c>
@@ -2932,7 +2947,7 @@
       <c r="A23" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="27">
         <f>B21*(1+0.1)</f>
         <v>6.1227735368956752E-3</v>
       </c>
@@ -2941,7 +2956,7 @@
       <c r="B25" s="23"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="28">
         <v>40336.208330000001</v>
       </c>
     </row>
@@ -2958,6 +2973,243 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1DBF93-9FDC-475C-A9DF-C416D7A76EB4}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>101</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>101</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>101</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>101</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>101</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>101</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>101</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F11AF1B-47EF-4B3C-B854-4ED322BC23FF}">
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -2982,24 +3234,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
